--- a/26. Recherche opérationnelle en Excel/09 - MULTIPLE - EXCELLENT FICHIER AVEC PRODUCTION,MELANGE,CUTSTOCK/02. Examples de programmes linéaires en Français.xlsx
+++ b/26. Recherche opérationnelle en Excel/09 - MULTIPLE - EXCELLENT FICHIER AVEC PRODUCTION,MELANGE,CUTSTOCK/02. Examples de programmes linéaires en Français.xlsx
@@ -86,6 +86,7 @@
     <definedName name="Demand" localSheetId="3">Alloc2!$B$27:$F$27</definedName>
     <definedName name="Demand">Process!$B$17:$E$17</definedName>
     <definedName name="Hours_available">Process!$E$3</definedName>
+    <definedName name="legende">Alloc1!$I$11:$I$22</definedName>
     <definedName name="limcount" hidden="1">2</definedName>
     <definedName name="lssolver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="lssolver_drv" localSheetId="3" hidden="1">2</definedName>
@@ -2237,9 +2238,6 @@
     <t>Information à propos des machines</t>
   </si>
   <si>
-    <t>Numbre de machines à utliser</t>
-  </si>
-  <si>
     <t>Nombre de produits à faire par jour</t>
   </si>
   <si>
@@ -2258,13 +2256,16 @@
     <t>Nombre de machines dans l'usine</t>
   </si>
   <si>
-    <t>Demande commerciale de produits clients</t>
-  </si>
-  <si>
-    <t>Maximum de produit que chaque machine peut produire</t>
-  </si>
-  <si>
     <t>Somme des produits fabriqués suite à l'optmisation avec le solveur</t>
+  </si>
+  <si>
+    <t>Demande commerciale de produits de la part des clients</t>
+  </si>
+  <si>
+    <t>Maximum de produits que chaque machine peut produire  suite à l'optmisation avec le solveur</t>
+  </si>
+  <si>
+    <t>Nombre de machines à utliser</t>
   </si>
 </sst>
 </file>
@@ -6244,7 +6245,7 @@
   <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.6"/>
@@ -6372,7 +6373,7 @@
         <v>368</v>
       </c>
       <c r="E8" s="244" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F8" s="245"/>
       <c r="G8" s="246"/>
@@ -6438,13 +6439,13 @@
       <c r="G11" s="257"/>
       <c r="I11" s="374"/>
       <c r="J11" s="236" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="4.5" customHeight="1" thickTop="1" thickBot="1"/>
     <row r="13" spans="1:19" ht="13.8" thickTop="1" thickBot="1">
       <c r="A13" s="258" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="B13" s="240"/>
       <c r="C13" s="240"/>
@@ -6484,7 +6485,7 @@
       <c r="G15" s="246"/>
       <c r="I15" s="380"/>
       <c r="J15" s="236" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="13.2" thickBot="1">
@@ -6503,7 +6504,7 @@
     <row r="17" spans="1:10" ht="4.5" customHeight="1" thickTop="1" thickBot="1"/>
     <row r="18" spans="1:10" ht="13.8" thickTop="1" thickBot="1">
       <c r="A18" s="239" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B18" s="240"/>
       <c r="C18" s="240"/>
@@ -6574,12 +6575,12 @@
       <c r="G22" s="246"/>
       <c r="I22" s="389"/>
       <c r="J22" s="236" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="13.8" thickTop="1" thickBot="1">
       <c r="A23" s="259" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B23" s="381">
         <v>750</v>
@@ -6658,7 +6659,7 @@
     </row>
     <row r="30" spans="1:10" ht="13.8" thickTop="1" thickBot="1">
       <c r="A30" s="262" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B30" s="375">
         <f>SUMPRODUCT(B19:B21,C9:C11)+SUMPRODUCT(B14:B16,B9:B11)</f>

--- a/26. Recherche opérationnelle en Excel/09 - MULTIPLE - EXCELLENT FICHIER AVEC PRODUCTION,MELANGE,CUTSTOCK/02. Examples de programmes linéaires en Français.xlsx
+++ b/26. Recherche opérationnelle en Excel/09 - MULTIPLE - EXCELLENT FICHIER AVEC PRODUCTION,MELANGE,CUTSTOCK/02. Examples de programmes linéaires en Français.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\python-data-science\26. Recherche opérationnelle en Excel\09 - MULTIPLE - EXCELLENT FICHIER AVEC PRODUCTION,MELANGE,CUTSTOCK\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16320" windowHeight="5772" activeTab="3"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16320" windowHeight="5772" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -4653,6 +4653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -5408,6 +5409,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Y41"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -6418,9 +6420,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I15" sqref="I15:M15"/>
     </sheetView>
   </sheetViews>
@@ -7556,10 +7559,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:T67"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.6"/>
@@ -9194,10 +9198,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.6"/>
@@ -9967,6 +9972,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -11176,6 +11182,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -12129,6 +12136,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
